--- a/src/main/resources/tp/_export_bgd_data_return.xlsx
+++ b/src/main/resources/tp/_export_bgd_data_return.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03D5E7A-6CA6-461D-B3B6-58D1BAA3EB3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55750188-6204-4771-8570-DFE1A2EF0265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主单" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="199">
   <si>
     <t>总运单号</t>
   </si>
@@ -237,9 +237,6 @@
   </si>
   <si>
     <t>t.trade_country</t>
-  </si>
-  <si>
-    <t>t.qiyun_port</t>
   </si>
   <si>
     <t>t.note_S}}</t>
@@ -335,9 +332,6 @@
     <t>{{$fe:list1 t.bill_no</t>
   </si>
   <si>
-    <t>t.net_weight</t>
-  </si>
-  <si>
     <t>t.xxxx</t>
   </si>
   <si>
@@ -398,18 +392,10 @@
     <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
-    <t>e.e_airport</t>
-    <phoneticPr fontId="46" type="noConversion"/>
-  </si>
-  <si>
     <t>t.send_name</t>
     <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
-    <t>t.send_city</t>
-    <phoneticPr fontId="46" type="noConversion"/>
-  </si>
-  <si>
     <t>t.send_tel</t>
     <phoneticPr fontId="46" type="noConversion"/>
   </si>
@@ -550,10 +536,6 @@
     <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
-    <t>t.trade_curr</t>
-    <phoneticPr fontId="46" type="noConversion"/>
-  </si>
-  <si>
     <t>t.pack_no</t>
     <phoneticPr fontId="46" type="noConversion"/>
   </si>
@@ -731,6 +713,22 @@
   </si>
   <si>
     <t>t.unit_2</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.depart_arrival_port</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.e_airport</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.net_weight</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.curr_code</t>
     <phoneticPr fontId="46" type="noConversion"/>
   </si>
 </sst>
@@ -739,8 +737,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="47">
     <font>
@@ -2487,7 +2485,7 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11377,16 +11375,16 @@
     <xf numFmtId="0" fontId="28" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -11650,10 +11648,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -15472,8 +15470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2:AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -15517,7 +15515,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -15544,19 +15542,19 @@
         <v>9</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="Q1" s="17" t="s">
         <v>10</v>
@@ -15577,37 +15575,37 @@
         <v>15</v>
       </c>
       <c r="W1" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="AF1" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG1" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="AH1" s="11" t="s">
         <v>17</v>
@@ -15631,13 +15629,13 @@
         <v>23</v>
       </c>
       <c r="AO1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP1" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ1" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AR1" s="11" t="s">
         <v>24</v>
@@ -15646,7 +15644,7 @@
         <v>25</v>
       </c>
       <c r="AT1" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU1" s="11" t="s">
         <v>26</v>
@@ -15660,139 +15658,139 @@
         <v>65</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>66</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>67</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>70</v>
+      <c r="J2" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O2" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q2" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="R2" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="T2" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="U2" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="V2" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="S2" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="T2" s="19" t="s">
+      <c r="W2" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="U2" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="V2" s="19" t="s">
+      <c r="X2" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="Y2" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="Z2" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="AA2" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="AB2" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AC2" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AD2" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="AC2" s="19" t="s">
+      <c r="AE2" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="AD2" s="19" t="s">
+      <c r="AF2" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AE2" s="19" t="s">
+      <c r="AG2" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AF2" s="19" t="s">
+      <c r="AH2" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI2" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="AG2" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH2" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI2" s="19" t="s">
-        <v>146</v>
-      </c>
       <c r="AJ2" s="19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AK2" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL2" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM2" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN2" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP2" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ2" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AR2" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS2" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AT2" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU2" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:47">
@@ -15813,8 +15811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AR15"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AN1" sqref="AN1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -15867,16 +15865,16 @@
         <v>28</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>29</v>
@@ -15897,7 +15895,7 @@
         <v>34</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>13</v>
@@ -15918,7 +15916,7 @@
         <v>15</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>36</v>
@@ -15927,13 +15925,13 @@
         <v>37</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>38</v>
@@ -15945,10 +15943,10 @@
         <v>40</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>41</v>
@@ -15975,16 +15973,16 @@
         <v>48</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AR1" s="3" t="s">
         <v>16</v>
@@ -15992,133 +15990,133 @@
     </row>
     <row r="2" spans="1:44" s="18" customFormat="1" ht="13.5">
       <c r="A2" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z2" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC2" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="T2" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="U2" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="V2" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z2" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AD2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AB2" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AK2" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE2" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF2" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG2" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH2" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI2" s="18" t="s">
+      <c r="AL2" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="AK2" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL2" s="18" t="s">
-        <v>101</v>
-      </c>
       <c r="AM2" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AN2" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AO2" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP2" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AQ2" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AR2" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -16217,31 +16215,31 @@
         <v>50</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>52</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>53</v>
@@ -16279,73 +16277,73 @@
     </row>
     <row r="2" spans="1:23" s="18" customFormat="1" ht="13.5">
       <c r="A2" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="D2" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="I2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="N2" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="O2" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="P2" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q2" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="R2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q2" s="18" t="s">
+      <c r="T2" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="R2" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="S2" s="18" t="s">
+      <c r="U2" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="V2" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="W2" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:23">
